--- a/CraftyProfessionsWorkbook.xlsx
+++ b/CraftyProfessionsWorkbook.xlsx
@@ -1,13 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CF44F55-442F-4359-83DE-D4D91231B38D}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="InitialExpEquation" sheetId="1" r:id="rId1"/>
+    <sheet name="AugmentList" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="Base_Exp_Value">InitialExpEquation!$D$3</definedName>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
   <si>
     <t>Levels</t>
   </si>
@@ -43,12 +45,33 @@
   <si>
     <t>Cumulitive Exponential</t>
   </si>
+  <si>
+    <t>Profession Augments</t>
+  </si>
+  <si>
+    <t>Income Bonus</t>
+  </si>
+  <si>
+    <t>Token Bonus</t>
+  </si>
+  <si>
+    <t>Specialize Profession</t>
+  </si>
+  <si>
+    <t>Augment Name</t>
+  </si>
+  <si>
+    <t>Bonus Amount Minimum</t>
+  </si>
+  <si>
+    <t>Expierence Bonus</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -66,6 +89,29 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -169,7 +215,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -197,6 +243,24 @@
     </xf>
     <xf numFmtId="4" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2657,14 +2721,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:B51" totalsRowShown="0" headerRowDxfId="11" headerRowBorderDxfId="10" tableBorderDxfId="9" totalsRowBorderDxfId="8">
-  <autoFilter ref="A1:B51">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table4" displayName="Table4" ref="A1:B51" totalsRowShown="0" headerRowDxfId="11" headerRowBorderDxfId="10" tableBorderDxfId="9" totalsRowBorderDxfId="8">
+  <autoFilter ref="A1:B51" xr:uid="{00000000-0009-0000-0100-000004000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="2">
-    <tableColumn id="1" name="Levels" dataDxfId="7"/>
-    <tableColumn id="2" name="Exp Amounts" dataDxfId="6">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Levels" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Exp Amounts" dataDxfId="6">
       <calculatedColumnFormula>(Base_Exp_Value*A2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2673,14 +2737,14 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table424" displayName="Table424" ref="I1:J51" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="4" tableBorderDxfId="3" totalsRowBorderDxfId="2">
-  <autoFilter ref="I1:J51">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table424" displayName="Table424" ref="I1:J51" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="4" tableBorderDxfId="3" totalsRowBorderDxfId="2">
+  <autoFilter ref="I1:J51" xr:uid="{00000000-0009-0000-0100-000003000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="2">
-    <tableColumn id="1" name="Levels" dataDxfId="1"/>
-    <tableColumn id="2" name="Exp Amounts" dataDxfId="0">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Levels" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Exp Amounts" dataDxfId="0">
       <calculatedColumnFormula>(Base_Exp_Value*I2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2950,11 +3014,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F40" sqref="F40"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3823,4 +3887,131 @@
     <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:M24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="2" max="2" width="29.28515625" customWidth="1"/>
+    <col min="3" max="3" width="29.7109375" customWidth="1"/>
+    <col min="4" max="4" width="29" customWidth="1"/>
+    <col min="5" max="5" width="28.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="15"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
+    </row>
+    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="10"/>
+    </row>
+    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="10"/>
+    </row>
+    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+    </row>
+    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="10"/>
+    </row>
+    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="10"/>
+    </row>
+    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="10"/>
+    </row>
+    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="10"/>
+    </row>
+    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="10"/>
+      <c r="B10" s="10"/>
+    </row>
+    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="10"/>
+    </row>
+    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="10"/>
+    </row>
+    <row r="17" spans="12:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
+    </row>
+    <row r="18" spans="12:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L18" s="10"/>
+      <c r="M18" s="10"/>
+    </row>
+    <row r="19" spans="12:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L19" s="10"/>
+      <c r="M19" s="10"/>
+    </row>
+    <row r="20" spans="12:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L20" s="10"/>
+      <c r="M20" s="10"/>
+    </row>
+    <row r="21" spans="12:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L21" s="10"/>
+      <c r="M21" s="10"/>
+    </row>
+    <row r="22" spans="12:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L22" s="10"/>
+      <c r="M22" s="10"/>
+    </row>
+    <row r="23" spans="12:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
+    </row>
+    <row r="24" spans="12:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L24" s="10"/>
+      <c r="M24" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>